--- a/biology/Médecine/1562_en_santé_et_médecine/1562_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1562_en_santé_et_médecine/1562_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1562 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« La princesse Marguerite de Parme, fille de Charles Quint, décide de créer l'hôpital Saint-Jean d'Hesdin[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« La princesse Marguerite de Parme, fille de Charles Quint, décide de créer l'hôpital Saint-Jean d'Hesdin ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ambroise Paré (1510-1590) est nommé Premier chirurgien du roi Charles IX[2].
-L'infant Don Carlos, gravement blessé au crâne à l'occasion d'une chute dans un escalier, est soigné avec succès par Vésale[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambroise Paré (1510-1590) est nommé Premier chirurgien du roi Charles IX.
+L'infant Don Carlos, gravement blessé au crâne à l'occasion d'une chute dans un escalier, est soigné avec succès par Vésale.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Canappe (fl. c.1530-1580) traduit en français le Guidon de Guy de Chauliac[4].
-Antonio Mizauld (1510-1578) publie ses Singuliers secrets et secours contre la peste[5].
-L'imprimeur Vincenzo Valgrisi (en) fait paraître à Venise les Practicae magnae[6] de Benedetto Vittorio (1481-1561[7]).
-William Bullein (en) (c.1515-1576), médecin anglais[8], publie à Londres son « Rempart de défense contre toutes les maladies » (Bulwarke of defence against all sicknesse[9]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Canappe (fl. c.1530-1580) traduit en français le Guidon de Guy de Chauliac.
+Antonio Mizauld (1510-1578) publie ses Singuliers secrets et secours contre la peste.
+L'imprimeur Vincenzo Valgrisi (en) fait paraître à Venise les Practicae magnae de Benedetto Vittorio (1481-1561).
+William Bullein (en) (c.1515-1576), médecin anglais, publie à Londres son « Rempart de défense contre toutes les maladies » (Bulwarke of defence against all sicknesse).</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Paul Contant (mort en 1629), apothicaire, botaniste et écrivain français[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paul Contant (mort en 1629), apothicaire, botaniste et écrivain français.</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1562_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1562_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9 octobre : Gabriel Fallope (né vers 1523[11]), naturaliste, botaniste, anatomiste et chirurgien italien.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 octobre : Gabriel Fallope (né vers 1523), naturaliste, botaniste, anatomiste et chirurgien italien.
 </t>
         </is>
       </c>
